--- a/biology/Zoologie/Hirondelle_à_gorge_perlée/Hirondelle_à_gorge_perlée.xlsx
+++ b/biology/Zoologie/Hirondelle_à_gorge_perlée/Hirondelle_à_gorge_perlée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_perl%C3%A9e</t>
+          <t>Hirondelle_à_gorge_perlée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo dimidiata
 L'Hirondelle à gorge perlée (Hirundo dimidiata) est une espèce de passereau de la famille des Hirundinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_perl%C3%A9e</t>
+          <t>Hirondelle_à_gorge_perlée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur la République démocratique du Congo, l'Angola, la Namibie, la Zambie, le Botswana, le Zimbabwe, l'Afrique du Sud, le Lesotho, le Swaziland, le Mozambique et le Malawi. Elle est rare en Tanzanie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_perl%C3%A9e</t>
+          <t>Hirondelle_à_gorge_perlée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Hirundo dimidiata dimidiata Sundevall, 1850 ;
